--- a/00-规划.xlsx
+++ b/00-规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wqao\Desktop\bookshelf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A2033-E1D6-4506-87ED-8ED63B5CE143}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E593E11-3906-4DF4-A8E3-21C5B824B3F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,11 +131,6 @@
   </si>
   <si>
     <t>23-30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划制定
-整理已有工具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -182,7 +177,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>熟悉知识栈</t>
+    <t>定个计划
+整理笔记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉webpack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理笔记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React核心
+了解TypeScript</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +203,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +238,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -386,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,6 +475,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -757,7 +783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -766,11 +792,11 @@
     <col min="2" max="2" width="9.33203125" style="15" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="18" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="15"/>
-    <col min="9" max="9" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="15"/>
     <col min="11" max="11" width="13" style="18" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="15"/>
@@ -781,60 +807,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="25"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="2:15" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="26">
+      <c r="D2" s="29">
         <v>43741</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26">
+      <c r="E2" s="31"/>
+      <c r="F2" s="29">
         <v>43741</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26">
+      <c r="G2" s="31"/>
+      <c r="H2" s="29">
         <v>43742</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="26">
+      <c r="I2" s="31"/>
+      <c r="J2" s="29">
         <v>43743</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="26">
+      <c r="K2" s="31"/>
+      <c r="L2" s="29">
         <v>43744</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26">
+      <c r="M2" s="31"/>
+      <c r="N2" s="29">
         <v>43745</v>
       </c>
-      <c r="O2" s="28"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D3" s="16" t="s">
@@ -907,23 +933,21 @@
       <c r="E6" s="19"/>
       <c r="F6" s="16"/>
       <c r="G6" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="I6" s="27"/>
       <c r="J6" s="16"/>
       <c r="K6" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -995,27 +1019,27 @@
     <row r="10" spans="2:15" ht="41.75" x14ac:dyDescent="0.25">
       <c r="D10" s="16"/>
       <c r="E10" s="24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="21" t="s">
-        <v>33</v>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -1099,34 +1123,34 @@
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="2:15" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26">
+      <c r="B15" s="29">
         <v>43746</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26">
+      <c r="C15" s="30"/>
+      <c r="D15" s="29">
         <v>43747</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="26">
+      <c r="E15" s="31"/>
+      <c r="F15" s="29">
         <v>43748</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="26">
+      <c r="G15" s="31"/>
+      <c r="H15" s="29">
         <v>43749</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="26">
+      <c r="I15" s="31"/>
+      <c r="J15" s="29">
         <v>43750</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="26">
+      <c r="K15" s="31"/>
+      <c r="L15" s="29">
         <v>43751</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="26">
+      <c r="M15" s="31"/>
+      <c r="N15" s="29">
         <v>43752</v>
       </c>
-      <c r="O15" s="28"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
